--- a/old_database/crypto/fastqFiles/fastq_0629_0618.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_0629_0618.xlsx
@@ -40,7 +40,7 @@
     <t>10.19.11</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_0629_0618</t>
   </si>
   <si>
     <t>0629_0618</t>
